--- a/source/TEAM4 05 - 단위테스트 시나리오 및 통합테스트 시나리오/신소연.xlsx
+++ b/source/TEAM4 05 - 단위테스트 시나리오 및 통합테스트 시나리오/신소연.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Team4\source\TEAM4 05 - 단위테스트 시나리오 및 통합테스트 시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A102B3-63E8-4D21-807F-C29CDEDC1D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9213E-FF61-44A3-AA05-396CFC79C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,124 @@
   </si>
   <si>
     <t>기계시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 했을 때 비밀번호 칸에서 엔터시
+잘 로그인 되었고 틀린 비밀번호로 로그인했을때와 
+존재하지 않는 아이디로 로그인했을 때
+"아이디 비밀번호를 확인해주세요"라고 잘 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 데이터를 현장마감으로 하고 시작하였을 때 
+스크립트 오류가 뜨지 않았고 "작업지시를 선택해주세요"
+라고 뜨고, 데이터를 선택해 작업을
+시작하니 로우 색상이 변경되고 DB에 잘 업데이트 되었음
+초마다 작업지시가 다시 불러왔지만 색상이 그대로 잘 
+적용되어있었음
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옮겨타기 수량을 0으로 했을 때 건조대차가 0개를
+로딩하면서 건조대차가 대차 목록에서 없어짐
+수량이 1개이상일 때는 옮겨타기가 잘 완료됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업장에 할당과 전체해제, 해제가 잘 되지만
+해당 기능으로 로그인 제한이 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">O </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 시작 전에 측정값 등록이 불가능함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 시작 전에 측정값 등록을 가능하게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 실행시 작업 시작을 해야 
+측정값 등록이 가능함
+그 이외에는 화면에 잘 표시되고 업데이트 되었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 작업의 생산수량을 설정하고 
+생산을 시작했을때 진행 상태가 표시되고
+생산이 완료되면 기계가 종료된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업장 및 현재 작업지시를 보여주는 패널이 수정가능하여 마치 작업에 영향이 갈거같음 기계가 실행될 때 버튼의 색상이 눈에 띄는 색상으로 변경되지 않음
+선택한 작업에 대한 실적등록 
+및 측정값 등록 / 작업마감 정상 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업장 및 현재 작업지시를 보여주는
+ 패널이 수정가능하여
+ 마치 작업에 영향이 갈거같음
+ 기계가 실행될 때 버튼의 색상이
+ 눈에 띄는 색상으로 변경되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패널 내의 텍스트 박스를 ReadOnly로
+변경해주고 기계 버튼의 색상을
+ 파랑의 보색으로 변경함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0개를 옮겨타기 했을 때 
+로딩이 가능함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0개일 경우 
+옮겨타기가 불가능하게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업장에 할당이 되지
+않아도 로그인이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업장에 할당이 되었을
+경우에만 로그인하게함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언로딩 후 팔레트에 적재하는데 문제가 있음
+Pallet_Master와 Goods_In_History
+DB 설계에 문제가 있는듯함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,10 +1116,11 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="12" width="30.875" customWidth="1"/>
+    <col min="12" max="12" width="42.875" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1064,17 +1189,25 @@
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11">
+        <v>43878</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1093,11 +1226,19 @@
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11">
+        <v>43878</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1122,17 +1263,25 @@
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="11">
+        <v>43878</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1151,15 +1300,31 @@
       <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11">
+        <v>43878</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="11">
+        <v>43878</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -1180,18 +1345,34 @@
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11">
+        <v>43878</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="11">
+        <v>43878</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
@@ -1209,7 +1390,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1225,7 +1406,7 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1241,7 +1422,7 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1257,7 +1438,7 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1273,7 +1454,7 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="3"/>
@@ -1291,7 +1472,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1307,7 +1488,7 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1323,7 +1504,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,7 +1520,7 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1355,7 +1536,7 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1371,7 +1552,7 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3"/>
@@ -1389,7 +1570,7 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1405,7 +1586,7 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1421,7 +1602,7 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="11"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1437,7 +1618,7 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="11"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1453,7 +1634,7 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1469,7 +1650,7 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="3"/>
@@ -1487,7 +1668,7 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1503,7 +1684,7 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="11"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1519,7 +1700,7 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="11"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1535,7 +1716,7 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="3:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1551,7 +1732,7 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1567,7 +1748,7 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="11"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1583,7 +1764,7 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="3"/>
@@ -1601,7 +1782,7 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C33" s="11"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1617,7 +1798,7 @@
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1633,7 +1814,7 @@
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35" s="11"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1649,34 +1830,34 @@
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C36" s="11"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C37" s="11"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C40" s="11"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C41" s="11"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C42" s="11"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C43" s="11"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C44" s="11"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C45" s="11"/>
+      <c r="C45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1697,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1713,10 +1894,11 @@
     <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="9" max="9" width="5.875" customWidth="1"/>
     <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="30.875" customWidth="1"/>
+    <col min="11" max="11" width="42" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.25" customWidth="1"/>
+    <col min="15" max="15" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,6 +1961,30 @@
       <c r="F3" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="12">
+        <v>43878</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="12">
+        <v>43878</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="2:15" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -1796,6 +2002,30 @@
       <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43878</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="12">
+        <v>43878</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="2:15" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -1812,6 +2042,18 @@
       </c>
       <c r="F5" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43878</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
